--- a/Testbench Records.xlsx
+++ b/Testbench Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UNIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD42CDF-E414-4C83-9587-F862F57C62A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD07212-2470-4555-BA7D-EAA6AAD20BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34050" yWindow="6450" windowWidth="21600" windowHeight="11385" xr2:uid="{D6F4923E-838C-4472-8E87-78F161939FB0}"/>
+    <workbookView xWindow="-28800" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{D6F4923E-838C-4472-8E87-78F161939FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>LIVE</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Provided</t>
-  </si>
-  <si>
-    <t>Method</t>
   </si>
 </sst>
 </file>
@@ -142,9 +139,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,12 +148,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,304 +473,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79897F4E-24BD-4B5B-A69C-0EAE2412D9B2}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.97916999999999998</v>
+      </c>
+      <c r="G2">
+        <f>F2-E2</f>
+        <v>-1.0299999999999754E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2/E2</f>
+        <v>-1.0508059579677365E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.96196999999999999</v>
+      </c>
       <c r="F3">
-        <v>0.98019999999999996</v>
+        <v>0.95677000000000001</v>
       </c>
       <c r="G3">
-        <v>0.97916999999999998</v>
-      </c>
-      <c r="H3">
-        <f>G3-F3</f>
-        <v>-1.0299999999999754E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <f>H3/F3</f>
-        <v>-1.0508059579677365E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
+        <f t="shared" ref="G3:G11" si="0">F3-E3</f>
+        <v>-5.1999999999999824E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H11" si="1">G3/E3</f>
+        <v>-5.4055739783984763E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.84877000000000002</v>
       </c>
       <c r="F4">
-        <v>0.96196999999999999</v>
+        <v>0.86400999999999994</v>
       </c>
       <c r="G4">
-        <v>0.95677000000000001</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H12" si="0">G4-F4</f>
-        <v>-5.1999999999999824E-3</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I12" si="1">H4/F4</f>
-        <v>-5.4055739783984763E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0.84877000000000002</v>
-      </c>
-      <c r="G5">
-        <v>0.86400999999999994</v>
-      </c>
-      <c r="H5">
         <f t="shared" si="0"/>
         <v>1.523999999999992E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>1.7955394276423436E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="3" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="E5">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G6">
+      <c r="F5">
         <v>0.99161999999999995</v>
       </c>
-      <c r="H6">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>9.6199999999999619E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>9.7963340122199198E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="3" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="E6">
         <v>0.876</v>
       </c>
-      <c r="G7">
+      <c r="F6">
         <v>0.87588999999999995</v>
       </c>
-      <c r="H7">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>-1.100000000000545E-4</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>-1.2557077625576998E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="E7">
         <v>0.97402999999999995</v>
       </c>
-      <c r="G8">
+      <c r="F7">
         <v>0.94035000000000002</v>
       </c>
-      <c r="H8">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>-3.3679999999999932E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>-3.4577990410972897E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="E8">
         <v>0.97172999999999998</v>
       </c>
-      <c r="G9">
+      <c r="F8">
         <v>0.97257000000000005</v>
       </c>
-      <c r="H9">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>8.4000000000006292E-4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>8.644376524343829E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5">
+      <c r="E9" s="4">
         <v>0.94964999999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F9" s="4">
         <v>0.95123000000000002</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>1.5800000000000258E-3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>1.6637708629495349E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="10" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="E10">
         <v>0.84877000000000002</v>
       </c>
-      <c r="G11">
+      <c r="F10">
         <v>0.86400999999999994</v>
       </c>
-      <c r="H11">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>1.523999999999992E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>1.7955394276423436E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="E11">
         <v>0.876</v>
       </c>
-      <c r="G12">
+      <c r="F11">
         <v>0.87588999999999995</v>
       </c>
-      <c r="H12">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>-1.100000000000545E-4</v>
       </c>
-      <c r="I12" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>-1.2557077625576998E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="5">
+      <c r="E12" s="4">
         <v>0.86036999999999997</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F12" s="4">
         <v>0.86921999999999999</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" ref="H13" si="2">G13-F13</f>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="2">F12-E12</f>
         <v>8.8500000000000245E-3</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" ref="I13" si="3">H13/F13</f>
+      <c r="H12" s="5">
+        <f t="shared" ref="H12" si="3">G12/E12</f>
         <v>1.0286272185222666E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="B2:B13"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Testbench Records.xlsx
+++ b/Testbench Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\UNIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD07212-2470-4555-BA7D-EAA6AAD20BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F05F9B-285C-43F2-8FD4-8776F6CD6148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{D6F4923E-838C-4472-8E87-78F161939FB0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D6F4923E-838C-4472-8E87-78F161939FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>LIVE</t>
   </si>
@@ -60,22 +60,16 @@
     <t>Gblur</t>
   </si>
   <si>
-    <t>Dif</t>
-  </si>
-  <si>
-    <t>Dif%</t>
-  </si>
-  <si>
     <t>MULTI-LIVE</t>
   </si>
   <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>DCT</t>
   </si>
   <si>
-    <t>Provided</t>
+    <t>EDF^3</t>
   </si>
 </sst>
 </file>
@@ -105,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +118,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -133,37 +133,1650 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="146">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,285 +2086,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79897F4E-24BD-4B5B-A69C-0EAE2412D9B2}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.97916999999999998</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.97457000000000005</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.97441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.96196999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.95677000000000001</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.95357000000000003</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.95696000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.84877000000000002</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.86400999999999994</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.85421999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.83096999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.99161999999999995</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.99024000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.98521000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0.876</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.85026999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0.97402999999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.94035000000000002</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.92462999999999995</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.97953999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.97172999999999998</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.97257000000000005</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.95382</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.98046999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.94964999999999999</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.95123000000000002</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.95298000000000005</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.95667999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.84877000000000002</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.86400999999999994</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.85421999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.83096999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0.876</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.87588999999999995</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.86553999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.85026999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0.98019999999999996</v>
-      </c>
-      <c r="F2">
-        <v>0.97916999999999998</v>
-      </c>
-      <c r="G2">
-        <f>F2-E2</f>
-        <v>-1.0299999999999754E-3</v>
-      </c>
-      <c r="H2" s="1">
-        <f>G2/E2</f>
-        <v>-1.0508059579677365E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0.96196999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.95677000000000001</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">F3-E3</f>
-        <v>-5.1999999999999824E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H11" si="1">G3/E3</f>
-        <v>-5.4055739783984763E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0.84877000000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.86400999999999994</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.523999999999992E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7955394276423436E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.99161999999999995</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>9.6199999999999619E-3</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7963340122199198E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0.876</v>
-      </c>
-      <c r="F6">
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-1.100000000000545E-4</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.2557077625576998E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>0.97402999999999995</v>
-      </c>
-      <c r="F7">
-        <v>0.94035000000000002</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-3.3679999999999932E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.4577990410972897E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.97172999999999998</v>
-      </c>
-      <c r="F8">
-        <v>0.97257000000000005</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>8.4000000000006292E-4</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>8.644376524343829E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.94964999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.95123000000000002</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5800000000000258E-3</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6637708629495349E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>0.84877000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.86400999999999994</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.523999999999992E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7955394276423436E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0.876</v>
-      </c>
-      <c r="F11">
-        <v>0.87588999999999995</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-1.100000000000545E-4</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.2557077625576998E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D13" s="13">
         <v>0.86036999999999997</v>
       </c>
-      <c r="F12" s="4">
+      <c r="E13" s="23">
         <v>0.86921999999999999</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12" si="2">F12-E12</f>
-        <v>8.8500000000000245E-3</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" ref="H12" si="3">G12/E12</f>
-        <v>1.0286272185222666E-2</v>
+      <c r="F13" s="28">
+        <v>0.86316999999999999</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.82784000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+      <formula>$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+      <formula>$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="greaterThan">
+      <formula>$E$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+      <formula>$E$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>$E$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+      <formula>$E$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>$E$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+      <formula>$E$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>$E$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
